--- a/public/cohort/fileExcel/xlsxUIT/OPEN/LO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/LO_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -932,10 +932,13 @@
     <t>LO1/ K5</t>
   </si>
   <si>
-    <t>Sport OriÃ«ntatie Keuze (SOK)</t>
+    <t>Sport Oriëntatie Keuze (SOK)</t>
   </si>
   <si>
     <t>LO1/ K9</t>
+  </si>
+  <si>
+    <t>De onderdelen worden beoordeeld met een O, V of G. Het gemiddelde van de beoordelingen wordt vermeld op de eindlijst.</t>
   </si>
   <si>
     <t>H</t>
@@ -950,10 +953,16 @@
     <t>Voeding en conditie</t>
   </si>
   <si>
-    <t xml:space="preserve">SportoriÃ«ntatie en sportkeuze (SOK) </t>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportoriëntatie en sportkeuze (SOK) </t>
   </si>
   <si>
     <t>A, B, C, D, E</t>
+  </si>
+  <si>
+    <t>Sportoriëntatie en sportkeuze (SOK) kan alleen afgesloten worden als er voldoende uren zijn geparticipeerd. Bij onvoldoende participatie kan geen eindbeoordeling gegeven worden. In bepaalde gevallen kan een onderdeel in de vorm van een vervangende opdracht worden herkanst. Als er aan alle verplichtingen is voldaan, wordt er een V van voldaan op de eindlijst vermeld.</t>
   </si>
   <si>
     <t>SportoriÃ«ntatie en sportkeuze (SOK) kan alleen afgesloten worden als er voldoende uren zijn geparticipeerd. Bij onvoldoende participatie kan geen eindbeoordeling worden gegeven. In bepaalde gevallen kan een onderdeel in de vorm van een vervangende opdracht worden herkanst. Als er aan alle verplichtingen is voldaan, wordt een V(oldaan) op de eindlijst vermeld.</t>
@@ -2017,7 +2026,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2163,7 +2172,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2517,7 +2526,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2889,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -2902,10 +2911,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -2949,7 +2958,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -2965,7 +2974,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -2990,10 +2999,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3037,7 +3046,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -3053,7 +3062,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -3078,10 +3087,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3125,7 +3134,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -3141,7 +3150,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -3153,7 +3162,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -3166,10 +3175,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -3229,7 +3238,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -3568,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3586,7 +3595,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3658,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3676,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -4086,7 +4095,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -4441,7 +4452,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4795,7 +4806,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602268519</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5822,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5840,7 +5851,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -5912,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -5930,7 +5941,7 @@
         <v>11</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6341,7 +6352,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -6726,7 +6737,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -6900,7 +6911,7 @@
       </c>
       <c r="S6" s="7">
         <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
         <f>IF(ISBLANK($J6),1,0)</f>
@@ -6952,7 +6963,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -6988,7 +6999,7 @@
       </c>
       <c r="S7" s="7">
         <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="7">
         <f>IF(ISBLANK($J7),1,0)</f>
@@ -7040,7 +7051,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -7076,7 +7087,7 @@
       </c>
       <c r="S8" s="7">
         <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="7">
         <f>IF(ISBLANK($J8),1,0)</f>
@@ -7128,7 +7139,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -7165,7 +7176,7 @@
       </c>
       <c r="S9" s="7">
         <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="7">
         <f>IF(ISBLANK($J9),1,0)</f>
@@ -7217,7 +7228,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -7226,7 +7237,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7609,9 +7620,7 @@
       <c r="M18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="46">
-        <v>1</v>
-      </c>
+      <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
@@ -7652,7 +7661,7 @@
       </c>
       <c r="Z18" s="7">
         <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="7">
         <f>IF(ISBLANK($O18),1,0)</f>
@@ -7676,7 +7685,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -7699,9 +7708,7 @@
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="46">
-        <v>1</v>
-      </c>
+      <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
@@ -7742,7 +7749,7 @@
       </c>
       <c r="Z19" s="7">
         <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="7">
         <f>IF(ISBLANK($O19),1,0)</f>
@@ -7766,7 +7773,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -7789,9 +7796,7 @@
       <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="46">
-        <v>1</v>
-      </c>
+      <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +7837,7 @@
       </c>
       <c r="Z20" s="7">
         <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="7">
         <f>IF(ISBLANK($O20),1,0)</f>
@@ -7856,7 +7861,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -7879,9 +7884,7 @@
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="46">
-        <v>1</v>
-      </c>
+      <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
@@ -7922,7 +7925,7 @@
       </c>
       <c r="Z21" s="7">
         <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="7">
         <f>IF(ISBLANK($O21),1,0)</f>
@@ -7946,7 +7949,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -8162,7 +8165,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -8994,7 +8999,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9168,7 +9173,7 @@
       </c>
       <c r="S6" s="7">
         <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
         <f>IF(ISBLANK($J6),1,0)</f>
@@ -9220,7 +9225,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9256,7 +9261,7 @@
       </c>
       <c r="S7" s="7">
         <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="7">
         <f>IF(ISBLANK($J7),1,0)</f>
@@ -9308,7 +9313,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9344,7 +9349,7 @@
       </c>
       <c r="S8" s="7">
         <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="7">
         <f>IF(ISBLANK($J8),1,0)</f>
@@ -9396,7 +9401,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9433,7 +9438,7 @@
       </c>
       <c r="S9" s="7">
         <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="7">
         <f>IF(ISBLANK($J9),1,0)</f>
@@ -9485,7 +9490,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9494,7 +9499,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9877,9 +9882,7 @@
       <c r="M18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="46">
-        <v>1</v>
-      </c>
+      <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
@@ -9920,7 +9923,7 @@
       </c>
       <c r="Z18" s="7">
         <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="7">
         <f>IF(ISBLANK($O18),1,0)</f>
@@ -9944,7 +9947,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -9967,9 +9970,7 @@
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="46">
-        <v>1</v>
-      </c>
+      <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
@@ -10010,7 +10011,7 @@
       </c>
       <c r="Z19" s="7">
         <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="7">
         <f>IF(ISBLANK($O19),1,0)</f>
@@ -10034,7 +10035,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -10057,9 +10058,7 @@
       <c r="M20" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="46">
-        <v>1</v>
-      </c>
+      <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
@@ -10100,7 +10099,7 @@
       </c>
       <c r="Z20" s="7">
         <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" s="7">
         <f>IF(ISBLANK($O20),1,0)</f>
@@ -10124,7 +10123,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -10147,9 +10146,7 @@
       <c r="M21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="46">
-        <v>1</v>
-      </c>
+      <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
@@ -10190,7 +10187,7 @@
       </c>
       <c r="Z21" s="7">
         <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="7">
         <f>IF(ISBLANK($O21),1,0)</f>
@@ -10214,7 +10211,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -11262,7 +11259,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11408,7 +11405,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>702</v>
@@ -11418,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -11431,10 +11428,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11478,7 +11475,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11494,7 +11491,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11512,7 +11509,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -11525,10 +11522,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11572,7 +11569,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11588,7 +11585,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11619,10 +11616,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11666,7 +11663,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11682,7 +11679,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11780,7 +11777,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13516,7 +13513,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13662,7 +13659,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2">
         <v>317</v>
@@ -13672,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -13685,10 +13682,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13696,7 +13693,7 @@
       </c>
       <c r="S6" s="7">
         <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
         <f>IF(ISBLANK($J6),1,0)</f>
@@ -13732,7 +13729,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -13766,7 +13763,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -13779,10 +13776,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -13790,7 +13787,7 @@
       </c>
       <c r="S7" s="7">
         <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="7">
         <f>IF(ISBLANK($J7),1,0)</f>
@@ -13826,7 +13823,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -13873,10 +13870,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -13920,7 +13917,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -13936,7 +13933,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -14034,7 +14031,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14406,7 +14403,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14417,14 +14414,12 @@
       <c r="M18" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="46">
-        <v>1</v>
-      </c>
+      <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14460,7 +14455,7 @@
       </c>
       <c r="Z18" s="7">
         <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="7">
         <f>IF(ISBLANK($O18),1,0)</f>
@@ -14484,7 +14479,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14496,7 +14491,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14507,14 +14502,12 @@
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="46">
-        <v>1</v>
-      </c>
+      <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14550,7 +14543,7 @@
       </c>
       <c r="Z19" s="7">
         <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="7">
         <f>IF(ISBLANK($O19),1,0)</f>
@@ -14574,7 +14567,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -14954,7 +14947,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>88</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -15932,7 +15927,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16286,7 +16281,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16658,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16676,7 +16671,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -16748,7 +16743,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -16766,7 +16761,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17207,7 +17202,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -18040,7 +18035,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18186,7 +18181,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>711</v>
@@ -18196,7 +18191,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -18209,10 +18204,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -18256,7 +18251,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18272,7 +18267,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18303,10 +18298,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -18350,7 +18345,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18366,7 +18361,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18397,10 +18392,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -18444,7 +18439,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18460,7 +18455,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18479,7 +18474,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
@@ -18492,10 +18487,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18539,7 +18534,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -18555,7 +18550,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -18564,7 +18559,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20302,7 +20297,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20448,7 +20443,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>322</v>
@@ -20458,7 +20453,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
@@ -20471,10 +20466,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -20518,7 +20513,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -20534,7 +20529,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -20565,10 +20560,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -20612,7 +20607,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -20628,7 +20623,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -20659,10 +20654,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -20706,7 +20701,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -20722,7 +20717,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -20741,7 +20736,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
@@ -20754,10 +20749,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -20801,7 +20796,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -20817,7 +20812,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -20826,7 +20821,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -21198,7 +21193,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -21211,10 +21206,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21258,7 +21253,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -21274,7 +21269,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -21299,10 +21294,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21346,7 +21341,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -21362,7 +21357,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -21387,10 +21382,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21434,7 +21429,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -21450,7 +21445,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -21462,7 +21457,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -21475,10 +21470,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -21522,7 +21517,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -21538,7 +21533,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/LO_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/LO_OPEN.xlsx
@@ -947,13 +947,13 @@
     <t>Duurloop training</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>A, B, C, D</t>
   </si>
   <si>
     <t>Voeding en conditie</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t xml:space="preserve">Sportoriëntatie en sportkeuze (SOK) </t>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2911,10 +2911,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -2999,10 +2999,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3087,10 +3087,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3175,10 +3175,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11428,10 +11428,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -11509,7 +11509,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -11522,10 +11522,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11616,10 +11616,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13682,10 +13682,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -13763,7 +13763,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
@@ -13776,10 +13776,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -13870,10 +13870,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18204,10 +18204,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -18298,10 +18298,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -18392,10 +18392,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -18487,10 +18487,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18559,7 +18559,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20466,10 +20466,10 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R6" s="7">
         <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
@@ -20560,10 +20560,10 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -20654,10 +20654,10 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -20749,10 +20749,10 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766041667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -21206,10 +21206,10 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21294,10 +21294,10 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21382,10 +21382,10 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21470,10 +21470,10 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
